--- a/database/raw_data/realtion_db/좋은제약_거래처자료_윤수아_2.xlsx
+++ b/database/raw_data/realtion_db/좋은제약_거래처자료_윤수아_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Project_SK_5\Storage_docs\raw_data_enhanced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Narutalk_V003\beta_v0031\database\raw_data\realtion_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68F1EED3-74FB-4441-B1BF-E099EE54ACD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569DABC3-E193-4826-BD02-1B5FC178ECDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="26880" windowWidth="29040" windowHeight="15720" xr2:uid="{8447D19B-94B3-4C22-BABB-91CB89CB713E}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="21600" windowHeight="12670" xr2:uid="{8447D19B-94B3-4C22-BABB-91CB89CB713E}"/>
   </bookViews>
   <sheets>
     <sheet name="좋은제약_거래처자료_윤수아_2" sheetId="1" r:id="rId1"/>
